--- a/RailsClient/uploadfiles/template/上传容器零件对应关系模板.xlsx
+++ b/RailsClient/uploadfiles/template/上传容器零件对应关系模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>容器编码</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>旧零件编码(update时需要填写)</t>
+  </si>
+  <si>
+    <t>容量</t>
   </si>
   <si>
     <t>操作(new\update\delete)</t>
@@ -125,21 +128,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
+      <selection activeCell="E11" activeCellId="0" pane="topLeft" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.9450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.7450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.5294117647059"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.478431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="19.8509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="11.0588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.6039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0588235294118"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -155,7 +157,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -179,9 +184,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -204,9 +206,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
